--- a/sss_graph/data/coefficients.xlsx
+++ b/sss_graph/data/coefficients.xlsx
@@ -436,8 +436,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="24.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="8.719285714285713" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>1453.24885807655</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>-255.884376516376</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>922.089317126374</v>
+        <v>1254</v>
       </c>
       <c r="E2" s="2">
-        <v>1174.64975992815</v>
+        <v>1292</v>
       </c>
       <c r="F2" s="2">
-        <v>656.78549585891</v>
+        <v>774</v>
       </c>
       <c r="G2" s="2">
-        <v>-117.328789855366</v>
+        <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B9" s="2">
-        <v>-13.0373556770982</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2">
-        <v>0.866183817764514</v>
+        <v>-0.29</v>
       </c>
       <c r="D9" s="2">
-        <v>1.57136376983487</v>
+        <v>0.34</v>
       </c>
       <c r="E9" s="2">
-        <v>2.85754189223936</v>
+        <v>0.62</v>
       </c>
       <c r="F9" s="2">
-        <v>2.85754189223936</v>
+        <v>0.62</v>
       </c>
       <c r="G9" s="2">
-        <v>-0.00705406735664131</v>
+        <v>-2.24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B10" s="2">
-        <v>-74.0787852562438</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>1.52796147313397</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>-5.18031350164331</v>
+        <v>-12.15</v>
       </c>
       <c r="E10" s="2">
-        <v>-6.49834344721269</v>
+        <v>-19.21</v>
       </c>
       <c r="F10" s="2">
-        <v>-6.49834344721281</v>
+        <v>-19.21</v>
       </c>
       <c r="G10" s="2">
-        <v>-2.06111400998336</v>
+        <v>-14.77</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
@@ -680,22 +680,22 @@
         <v>16</v>
       </c>
       <c r="B11" s="2">
-        <v>61.2437555277112</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2">
-        <v>-31.5572310917866</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>-171.219712208991</v>
+        <v>-165.46</v>
       </c>
       <c r="E11" s="2">
-        <v>-168.564535127165</v>
+        <v>-158.05</v>
       </c>
       <c r="F11" s="2">
-        <v>-168.564535127166</v>
+        <v>-158.05</v>
       </c>
       <c r="G11" s="2">
-        <v>-168.564535127163</v>
+        <v>-158.05</v>
       </c>
     </row>
   </sheetData>
